--- a/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Foreigner.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Foreigner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narakorn.s\Desktop\(OPR)Import\Import_Emp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1615635-3DD5-4E33-A4D1-4938B7B1DDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A1DB90-77B6-43EF-97C7-4765D82A7C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,120 +22,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>company_code</t>
   </si>
   <si>
-    <t>OPR</t>
-  </si>
-  <si>
     <t>worker_code</t>
   </si>
   <si>
-    <t>IMP003</t>
-  </si>
-  <si>
     <t>รหัสบริษัท</t>
   </si>
   <si>
     <t>รหัสพนักงาน</t>
   </si>
   <si>
-    <t>passport_no</t>
-  </si>
-  <si>
-    <t>passport_issue</t>
-  </si>
-  <si>
-    <t>passport_expire</t>
-  </si>
-  <si>
-    <t>visa_no</t>
-  </si>
-  <si>
-    <t>visa_issue</t>
-  </si>
-  <si>
-    <t>visa_expire</t>
-  </si>
-  <si>
-    <t>workpermit_no</t>
-  </si>
-  <si>
-    <t>workpermit_by</t>
-  </si>
-  <si>
-    <t>workpermit_issue</t>
-  </si>
-  <si>
-    <t>workpermit_expire</t>
-  </si>
-  <si>
-    <t>entry_date</t>
-  </si>
-  <si>
-    <t>certificate_no</t>
-  </si>
-  <si>
-    <t>certificate_expire</t>
-  </si>
-  <si>
-    <t>otherdoc_no</t>
-  </si>
-  <si>
-    <t>otherdoc_expire</t>
-  </si>
-  <si>
-    <t>วันที่เข้าประเทศ</t>
-  </si>
-  <si>
-    <t>วันที่ออกหนังสือเดินทาง</t>
-  </si>
-  <si>
-    <t>วันที่หนังสือเดินทางหมดอายุ</t>
-  </si>
-  <si>
-    <t>เลขที่หนังสือเดินทาง</t>
-  </si>
-  <si>
-    <t>เลขที่วีซ่า</t>
-  </si>
-  <si>
-    <t>วันที่ออกวีซ่า</t>
-  </si>
-  <si>
-    <t>วันที่วีซ่าหมดอายุ</t>
-  </si>
-  <si>
-    <t>เลขที่ใบอนุญาตทำงาน</t>
-  </si>
-  <si>
-    <t>ออกโดย</t>
-  </si>
-  <si>
-    <t>วันที่ออกใบอนุญาตทำงาน</t>
-  </si>
-  <si>
-    <t>วันที่ใบอนุญาตทำงานหมดอายุ</t>
-  </si>
-  <si>
-    <t>เลขที่เอกสารสำคัญ</t>
-  </si>
-  <si>
-    <t>วันที่ออกเอกสารสำคัญ</t>
-  </si>
-  <si>
-    <t>เลขที่เอกสารอื่นๆ</t>
-  </si>
-  <si>
-    <t>วันที่เอกสารอื่นๆหมดอายุ</t>
-  </si>
-  <si>
-    <t>IMP123331</t>
-  </si>
-  <si>
-    <t>Admin</t>
+    <t>foreigner_code</t>
+  </si>
+  <si>
+    <t>foreigner_type</t>
+  </si>
+  <si>
+    <t>foreigner_issue</t>
+  </si>
+  <si>
+    <t>foreigner_expire</t>
+  </si>
+  <si>
+    <t>รหัสเอกสาร</t>
+  </si>
+  <si>
+    <t>ประเภท</t>
+  </si>
+  <si>
+    <t>PASS = passport</t>
+  </si>
+  <si>
+    <t>WORK = work permit</t>
+  </si>
+  <si>
+    <t>VISA = VISA</t>
+  </si>
+  <si>
+    <t>วันที่ออกเอกสาร</t>
+  </si>
+  <si>
+    <t>วันที่หมดอายุ</t>
   </si>
 </sst>
 </file>
@@ -164,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,12 +105,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,22 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,9 +152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,9 +192,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,26 +227,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,26 +262,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -557,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -571,125 +452,31 @@
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="17.109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="11" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" customWidth="1"/>
-    <col min="17" max="17" width="17.77734375" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" customWidth="1"/>
-    <col min="20" max="20" width="22.109375" customWidth="1"/>
-    <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="6">
-        <v>40301</v>
-      </c>
-      <c r="E2" s="6">
-        <v>47606</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="6">
-        <v>40301</v>
-      </c>
-      <c r="H2" s="6">
-        <v>47606</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="6">
-        <v>40301</v>
-      </c>
-      <c r="L2" s="6">
-        <v>47606</v>
-      </c>
-      <c r="M2" s="6">
-        <v>45049</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="6">
-        <v>40301</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>40301</v>
       </c>
     </row>
   </sheetData>
@@ -701,7 +488,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -711,174 +498,64 @@
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1"/>
-    <col min="12" max="12" width="30.88671875" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" customWidth="1"/>
-    <col min="14" max="14" width="20.88671875" customWidth="1"/>
-    <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="16" max="16" width="18.44140625" customWidth="1"/>
-    <col min="17" max="17" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="6">
-        <v>40301</v>
-      </c>
-      <c r="E3" s="6">
-        <v>47606</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="6">
-        <v>40301</v>
-      </c>
-      <c r="H3" s="6">
-        <v>47606</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="6">
-        <v>40301</v>
-      </c>
-      <c r="L3" s="6">
-        <v>47606</v>
-      </c>
-      <c r="M3" s="6">
-        <v>45049</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="6">
-        <v>40301</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Foreigner.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Foreigner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A1DB90-77B6-43EF-97C7-4765D82A7C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511DE8C7-71D1-4A29-ABE2-847748131AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>company_code</t>
   </si>
@@ -36,43 +36,40 @@
     <t>รหัสพนักงาน</t>
   </si>
   <si>
-    <t>foreigner_code</t>
-  </si>
-  <si>
     <t>foreigner_type</t>
   </si>
   <si>
-    <t>foreigner_issue</t>
-  </si>
-  <si>
-    <t>foreigner_expire</t>
-  </si>
-  <si>
-    <t>รหัสเอกสาร</t>
-  </si>
-  <si>
     <t>ประเภท</t>
   </si>
   <si>
-    <t>PASS = passport</t>
-  </si>
-  <si>
-    <t>WORK = work permit</t>
-  </si>
-  <si>
-    <t>VISA = VISA</t>
-  </si>
-  <si>
-    <t>วันที่ออกเอกสาร</t>
-  </si>
-  <si>
-    <t>วันที่หมดอายุ</t>
+    <t>entry_date</t>
+  </si>
+  <si>
+    <t>sent_sso</t>
+  </si>
+  <si>
+    <t>วันที่เข้าประเทศ *</t>
+  </si>
+  <si>
+    <t>นำส่งประกันสังคม</t>
+  </si>
+  <si>
+    <t>MOU</t>
+  </si>
+  <si>
+    <t>OPR</t>
+  </si>
+  <si>
+    <t>IMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,12 +118,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -459,7 +459,7 @@
     <col min="11" max="11" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -470,14 +470,83 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="4:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="4:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="4:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="4:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="4:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="4:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="4:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="4:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="4:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -488,22 +557,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="6" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -514,16 +582,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -531,31 +596,30 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>12</v>
+      <c r="D3" s="3">
+        <v>45191</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
